--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,148 +52,133 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>potatoes</t>
+    <t>gift</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>clean</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>coffee</t>
   </si>
   <si>
     <t>quality</t>
@@ -566,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.310077519379845</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +670,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +696,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L5">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M5">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +722,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8452012383900929</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>546</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>546</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +748,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -789,13 +774,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7445887445887446</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L8">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -815,13 +800,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -841,13 +826,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7012987012987013</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -867,13 +852,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6745762711864407</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L11">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="M11">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -885,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -893,13 +878,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6575342465753424</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -911,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -919,13 +904,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6571428571428571</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -945,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.65625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -971,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6380417335473515</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L15">
-        <v>795</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>795</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -989,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>451</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -997,13 +982,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6197183098591549</v>
+        <v>0.6524879614767255</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>813</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>813</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1023,13 +1008,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6041666666666666</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1049,13 +1034,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.5964912280701754</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1075,13 +1060,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5588235294117647</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1093,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1101,13 +1086,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5571428571428572</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1119,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1127,13 +1112,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5538461538461539</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1145,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1153,13 +1138,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5389221556886228</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1179,13 +1164,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5288461538461539</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L23">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1197,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1205,13 +1190,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5277777777777778</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1223,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1231,13 +1216,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5213675213675214</v>
+        <v>0.484375</v>
       </c>
       <c r="L25">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1257,13 +1242,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.481203007518797</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1283,13 +1268,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4761904761904762</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1309,13 +1294,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4736842105263158</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1327,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1335,25 +1320,25 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.45</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L29">
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>31</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>45</v>
-      </c>
-      <c r="M29">
-        <v>45</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1361,13 +1346,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4337349397590362</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1379,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1387,13 +1372,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4216867469879518</v>
+        <v>0.36</v>
       </c>
       <c r="L31">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1405,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1413,13 +1398,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.382716049382716</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1431,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>50</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1439,13 +1424,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3480392156862745</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L33">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1457,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>266</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1465,13 +1450,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3346303501945525</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L34">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1483,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>171</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1491,13 +1476,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3153153153153153</v>
+        <v>0.2917808219178082</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1509,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>76</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1517,13 +1502,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.299039780521262</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L36">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="M36">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1532,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>511</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1543,13 +1528,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2932330827067669</v>
+        <v>0.2518837459634015</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1561,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>94</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1569,13 +1554,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2870813397129187</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L38">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M38">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1587,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>149</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1595,13 +1580,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2685185185185185</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1613,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1621,25 +1606,25 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2615715823466093</v>
+        <v>0.1920614596670935</v>
       </c>
       <c r="L40">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="M40">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>686</v>
+        <v>631</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1647,13 +1632,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2589928057553957</v>
+        <v>0.1801324503311258</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="M41">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1665,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>103</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1673,13 +1658,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2214765100671141</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1691,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>116</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1699,13 +1684,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.209271523178808</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L43">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1717,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>597</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1725,25 +1710,25 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1974921630094044</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="L44">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M44">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>256</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1751,13 +1736,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1920529801324503</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1769,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>122</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1777,13 +1762,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1892583120204604</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L46">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1795,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>634</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1803,13 +1788,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1411192214111922</v>
+        <v>0.09429824561403509</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1821,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>353</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1829,25 +1814,25 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1405405405405405</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="L48">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>318</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1855,25 +1840,25 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1359649122807018</v>
+        <v>0.06743185078909612</v>
       </c>
       <c r="L49">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>394</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1881,13 +1866,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.134453781512605</v>
+        <v>0.06343283582089553</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1899,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>206</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1907,155 +1892,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1168384879725086</v>
+        <v>0.04069264069264069</v>
       </c>
       <c r="L51">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52">
-        <v>0.1159090909090909</v>
-      </c>
-      <c r="L52">
-        <v>51</v>
-      </c>
-      <c r="M52">
-        <v>51</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K53">
-        <v>0.09785202863961814</v>
-      </c>
-      <c r="L53">
-        <v>41</v>
-      </c>
-      <c r="M53">
-        <v>41</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54">
-        <v>0.08464849354375897</v>
-      </c>
-      <c r="L54">
-        <v>59</v>
-      </c>
-      <c r="M54">
-        <v>60</v>
-      </c>
-      <c r="N54">
-        <v>0.98</v>
-      </c>
-      <c r="O54">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K55">
-        <v>0.05975723622782447</v>
-      </c>
-      <c r="L55">
-        <v>64</v>
-      </c>
-      <c r="M55">
-        <v>65</v>
-      </c>
-      <c r="N55">
-        <v>0.98</v>
-      </c>
-      <c r="O55">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K56">
-        <v>0.03982683982683983</v>
-      </c>
-      <c r="L56">
-        <v>46</v>
-      </c>
-      <c r="M56">
-        <v>48</v>
-      </c>
-      <c r="N56">
-        <v>0.96</v>
-      </c>
-      <c r="O56">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
